--- a/DOCUMENTACIÓN SCRUM/Historia de Usuario-Administrador.xlsx
+++ b/DOCUMENTACIÓN SCRUM/Historia de Usuario-Administrador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UTN\Cuatrimestre 10\Jovan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD88A01-6D69-481E-ACB0-7FE8C3AA0B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE33D335-ECA9-4E99-9640-984BB2FA078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" firstSheet="1" activeTab="3" xr2:uid="{37E7242A-1CA3-4549-B27C-CF038E7C5618}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" firstSheet="1" activeTab="4" xr2:uid="{37E7242A-1CA3-4549-B27C-CF038E7C5618}"/>
   </bookViews>
   <sheets>
     <sheet name="1) Registro_Usuario" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="63">
   <si>
     <t>Enunciado de la historia</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>Cuando se vaya a borrar debe distinguirse claramente lo que se borrara</t>
+  </si>
+  <si>
+    <t>Historias de usuario y criterios de aceptación: Consulta de Mascotas</t>
+  </si>
+  <si>
+    <t>Historias de usuario y criterios de aceptación: Borrado de Mascotas</t>
+  </si>
+  <si>
+    <t>Historias de usuario y criterios de aceptación: Registro de cita de Mascotas</t>
   </si>
 </sst>
 </file>
@@ -393,16 +402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>515107</xdr:colOff>
+      <xdr:colOff>467482</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>4873</xdr:rowOff>
+      <xdr:rowOff>52498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -425,7 +434,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="38100"/>
+          <a:off x="11001375" y="85725"/>
           <a:ext cx="1248532" cy="1119298"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -934,7 +943,7 @@
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,7 +2798,7 @@
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
@@ -3715,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03E44EB-0AEF-4589-ACE1-28E58DD35FFA}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,7 +4502,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
@@ -4652,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E7BB4-D2AE-464C-A47B-64018DC69FBB}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,7 +5439,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="21" x14ac:dyDescent="0.35">
